--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>This market works for Client  GameID = 3739611  MarketName = Correct Score</t>
   </si>
@@ -20,16 +20,37 @@
     <t>This market works for Client  GameID = 3739633  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3733020  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3733021  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3688770  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3688774  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3750325  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750695  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750849  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750850  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747563  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750696  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750697  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750698  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750699  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750701  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750702  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3688776  MarketName = Correct Score</t>
@@ -41,58 +62,115 @@
     <t>This market works for Client  GameID = 3720487  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3724523  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739511  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739518  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739520  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739608  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739613  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741936  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741940  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741952  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741977  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3742010  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3742012  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3742016  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3742017  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3745506  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746322  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746323  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746331  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3749842  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749843  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749844  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749845  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749620  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749623  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749624  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749625  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749626  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749629  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749630  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749632  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749633  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749634  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749635  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749639  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749642  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749644  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749645  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749646  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749647  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749649  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749650  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749651  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749652  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749653  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749654  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749655  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748596  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750324  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750326  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750323  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747580  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747584  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747588  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750729  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750730  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715072  MarketName = Correct Score</t>
@@ -101,18 +179,15 @@
     <t>This market works for Client  GameID = 3715073  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715055  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715057  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715065  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3715074  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715067  MarketName = Correct Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3751185  MarketName = Correct Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3715075  MarketName = Correct Score</t>
   </si>
   <si>
@@ -122,13 +197,10 @@
     <t>This market works for Client  GameID = 3715090  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3747266  MarketName = Correct Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715063  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715069  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3715066  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715071  MarketName = Correct Score</t>
@@ -146,15 +218,6 @@
     <t>This market works for Client  GameID = 3726725  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3726728  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726730  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726731  MarketName = Correct Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3726732  MarketName = Correct Score</t>
   </si>
   <si>
@@ -164,34 +227,22 @@
     <t>This market works for Client  GameID = 3726739  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3726741  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726742  MarketName = Correct Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3726743  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3726746  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3742628  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3742630  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3742631  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741071  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741078  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3741092  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3739406  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738618  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3711984  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740302  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740327  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3740329  MarketName = Correct Score</t>
@@ -203,52 +254,31 @@
     <t>This market works for Client  GameID = 3740332  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3746547  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746548  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746549  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746574  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3750700  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3740333  MarketName = Correct Score</t>
   </si>
   <si>
+    <t>This market works for Client  GameID = 3740334  MarketName = Correct Score</t>
+  </si>
+  <si>
     <t>This market works for Client  GameID = 3740335  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3740336  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3746556  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746557  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746558  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746575  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3720092  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3720095  MarketName = Correct Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3656480  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3738611  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738612  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3746559  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748279  MarketName = Correct Score</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748281  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3742579  MarketName = Correct Score</t>
@@ -257,10 +287,7 @@
     <t>This market works for Client  GameID = 3742593  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715094  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715096  MarketName = Correct Score</t>
+    <t>This market works for Client  GameID = 3747534  MarketName = Correct Score</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715100  MarketName = Correct Score</t>
@@ -296,9 +323,6 @@
     <t>This market works for Client  GameID = 3715115  MarketName = Correct Score</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715116  MarketName = Correct Score</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715118  MarketName = Correct Score</t>
   </si>
   <si>
@@ -390,15 +414,6 @@
   </si>
   <si>
     <t>This market works for Client  GameID = 3715210  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746327  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746328  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746330  MarketName = Correct Score</t>
   </si>
 </sst>
 </file>
@@ -443,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A129"/>
+  <dimension ref="A1:A134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1097,6 +1112,31 @@
         <v>128</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
@@ -12,408 +12,381 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
-  <si>
-    <t>This market works for Client  GameID = 3739611  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739633  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750325  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750695  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750849  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750850  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747563  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750696  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750697  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750698  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750699  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750701  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750702  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3688776  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3688779  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3720487  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749842  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749843  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749844  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749845  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749620  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749623  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749624  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749625  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749626  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749629  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749630  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749632  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749633  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749634  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749635  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749639  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749642  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749644  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749645  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749646  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749647  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749649  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749650  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749651  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749652  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749653  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749654  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749655  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3748596  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750324  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750326  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750323  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747580  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747584  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747588  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750729  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750730  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715072  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715073  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715074  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715067  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751185  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715075  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715084  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715090  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715063  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715066  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715071  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715080  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715082  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726724  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726725  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726732  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726733  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726739  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3726743  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739406  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738618  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3711984  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740302  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740327  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740329  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740331  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740332  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750700  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740333  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740334  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740335  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740336  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3656480  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746559  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3748279  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3748281  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3742579  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3742593  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747534  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715100  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715101  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715103  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715105  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715107  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715108  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715109  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715111  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715113  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715114  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715115  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715118  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715119  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715120  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715121  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715122  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715123  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715125  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715126  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715127  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715128  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715129  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715130  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715133  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715134  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715140  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715141  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715144  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715147  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715150  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715151  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715152  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715153  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715154  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715156  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715163  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715176  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715180  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715181  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715182  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715194  MarketName = Correct Score</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715210  MarketName = Correct Score</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+  <si>
+    <t>This market works for Client  GameID = 3751476  MarketName = Correct Score  MarketID = 223544407  SelectorError = 0.939538929969552</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751477  MarketName = Correct Score  MarketID = 223544428  SelectorError = 0.9433962264150942</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751478  MarketName = Correct Score  MarketID = 223544449  SelectorError = 0.9433962264150942</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751482  MarketName = Correct Score  MarketID = 223542900  SelectorError = 0.9401488748332687</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751483  MarketName = Correct Score  MarketID = 223544225  SelectorError = 0.9433962264150942</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751484  MarketName = Correct Score  MarketID = 223544251  SelectorError = 0.9433962264150942</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754991  MarketName = Correct Score  MarketID = 223522008  SelectorError = 0.9480093920127819</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3747563  MarketName = Correct Score  MarketID = 223166808  SelectorError = 0.9339065682019214</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754449  MarketName = Correct Score  MarketID = 223542899  SelectorError = 0.9318181818181819</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754450  MarketName = Correct Score  MarketID = 223543013  SelectorError = 0.9237063977516945</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754451  MarketName = Correct Score  MarketID = 223542912  SelectorError = 0.924031760341181</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754453  MarketName = Correct Score  MarketID = 223542931  SelectorError = 0.9318181818181819</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3688776  MarketName = Correct Score  MarketID = 220711609  SelectorError = 0.9663043221589941</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3688779  MarketName = Correct Score  MarketID = 220711654  SelectorError = 0.9936809107554053</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3720487  MarketName = Correct Score  MarketID = 222283192  SelectorError = 0.9869891363230204</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750328  MarketName = Correct Score  MarketID = 223383985  SelectorError = 0.9521698520371298</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750329  MarketName = Correct Score  MarketID = 223449942  SelectorError = 0.9520137016730932</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753555  MarketName = Correct Score  MarketID = 223479703  SelectorError = 0.9893963315467812</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753556  MarketName = Correct Score  MarketID = 223479735  SelectorError = 0.9900480373951175</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753557  MarketName = Correct Score  MarketID = 223479738  SelectorError = 0.9752243961311771</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753560  MarketName = Correct Score  MarketID = 223479741  SelectorError = 0.987830126338354</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749630  MarketName = Correct Score  MarketID = 223263404  SelectorError = 0.9589997158619201</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749644  MarketName = Correct Score  MarketID = 223264116  SelectorError = 0.960621018709888</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749646  MarketName = Correct Score  MarketID = 223264210  SelectorError = 0.9597829373847281</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749649  MarketName = Correct Score  MarketID = 223264354  SelectorError = 0.959937658894932</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749650  MarketName = Correct Score  MarketID = 223264403  SelectorError = 0.9572913480143199</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749651  MarketName = Correct Score  MarketID = 223264456  SelectorError = 0.9583443774992997</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749652  MarketName = Correct Score  MarketID = 223264496  SelectorError = 0.9599711422484246</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749653  MarketName = Correct Score  MarketID = 223264536  SelectorError = 0.9609852007142248</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3749655  MarketName = Correct Score  MarketID = 223264615  SelectorError = 0.9589561833621039</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754977  MarketName = Correct Score  MarketID = 223515494  SelectorError = 0.9454298221917935</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754978  MarketName = Correct Score  MarketID = 223512992  SelectorError = 0.9589301069139773</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754990  MarketName = Correct Score  MarketID = 223513045  SelectorError = 0.9556288763607589</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3748596  MarketName = Correct Score  MarketID = 223218857  SelectorError = 0.9786864369717752</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754001  MarketName = Correct Score  MarketID = 223480770  SelectorError = 0.9895831201816869</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754358  MarketName = Correct Score  MarketID = 223534271  SelectorError = 0.9760488972068891</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754454  MarketName = Correct Score  MarketID = 223525461  SelectorError = 0.9817948335262664</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750729  MarketName = Correct Score  MarketID = 223305950  SelectorError = 0.9396064945976045</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750730  MarketName = Correct Score  MarketID = 223305976  SelectorError = 0.9466477480399786</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751265  MarketName = Correct Score  MarketID = 223411508  SelectorError = 0.9452220262290053</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3743950  MarketName = Correct Score  MarketID = 223479659  SelectorError = 0.9657752742303889</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751485  MarketName = Correct Score  MarketID = 223356487  SelectorError = 0.9428601979460847</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3752966  MarketName = Correct Score  MarketID = 223423481  SelectorError = 0.9443050119432913</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3752967  MarketName = Correct Score  MarketID = 223425506  SelectorError = 0.9431791691508924</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754002  MarketName = Correct Score  MarketID = 223490186  SelectorError = 0.9830868279587501</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754334  MarketName = Correct Score  MarketID = 223490842  SelectorError = 0.9631260116847151</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754335  MarketName = Correct Score  MarketID = 223494186  SelectorError = 0.9717137728926776</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754734  MarketName = Correct Score  MarketID = 223509420  SelectorError = 0.9683745983163603</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754992  MarketName = Correct Score  MarketID = 223512980  SelectorError = 0.9767602156949494</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715063  MarketName = Correct Score  MarketID = 221572178  SelectorError = 0.9466511407254065</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715066  MarketName = Correct Score  MarketID = 221572315  SelectorError = 0.9989532332545689</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715069  MarketName = Correct Score  MarketID = 221572436  SelectorError = 0.9803036678921483</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715071  MarketName = Correct Score  MarketID = 221572519  SelectorError = 0.9692019269375722</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715080  MarketName = Correct Score  MarketID = 221572894  SelectorError = 0.9700185869343355</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715082  MarketName = Correct Score  MarketID = 221572931  SelectorError = 0.9652633643799431</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754360  MarketName = Correct Score  MarketID = 223491288  SelectorError = 0.9976768982473045</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754365  MarketName = Correct Score  MarketID = 223491341  SelectorError = 0.9975489140213278</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754367  MarketName = Correct Score  MarketID = 223491362  SelectorError = 0.9963996563970811</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739406  MarketName = Correct Score  MarketID = 222840298  SelectorError = 0.9827721836872696</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3738618  MarketName = Correct Score  MarketID = 222808136  SelectorError = 0.9886986306711286</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740302  MarketName = Correct Score  MarketID = 222875430  SelectorError = 0.9726148178668874</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740327  MarketName = Correct Score  MarketID = 222875741  SelectorError = 0.9698867972151364</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740331  MarketName = Correct Score  MarketID = 222875863  SelectorError = 0.9837465359007548</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740332  MarketName = Correct Score  MarketID = 222875917  SelectorError = 0.9895182732185972</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746547  MarketName = Correct Score  MarketID = 223128852  SelectorError = 0.9885370849227966</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746549  MarketName = Correct Score  MarketID = 223128888  SelectorError = 0.9867699529729506</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750703  MarketName = Correct Score  MarketID = 223305640  SelectorError = 0.9661727295903593</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751765  MarketName = Correct Score  MarketID = 223366565  SelectorError = 0.9687718852116493</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3751766  MarketName = Correct Score  MarketID = 223366575  SelectorError = 0.9721256117719317</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753548  MarketName = Correct Score  MarketID = 223459628  SelectorError = 0.9536145640675235</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740333  MarketName = Correct Score  MarketID = 222875926  SelectorError = 0.9859591722530326</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740334  MarketName = Correct Score  MarketID = 222875938  SelectorError = 0.9794874415619109</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740335  MarketName = Correct Score  MarketID = 222875948  SelectorError = 0.9911138213099275</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740336  MarketName = Correct Score  MarketID = 222875965  SelectorError = 0.9741535971280652</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746556  MarketName = Correct Score  MarketID = 223128930  SelectorError = 0.9863998706652785</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3746558  MarketName = Correct Score  MarketID = 223128923  SelectorError = 0.9983126752773945</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753535  MarketName = Correct Score  MarketID = 223459646  SelectorError = 0.9795221508623961</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753536  MarketName = Correct Score  MarketID = 223459650  SelectorError = 0.9849029070368236</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753550  MarketName = Correct Score  MarketID = 223459654  SelectorError = 0.9897419601130996</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753551  MarketName = Correct Score  MarketID = 223459662  SelectorError = 0.9757684954365887</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750693  MarketName = Correct Score  MarketID = 223305796  SelectorError = 0.995173143781191</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750694  MarketName = Correct Score  MarketID = 223305810  SelectorError = 0.987379800606676</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754336  MarketName = Correct Score  MarketID = 223490872  SelectorError = 0.9812238650681822</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3754344  MarketName = Correct Score  MarketID = 223491094  SelectorError = 0.9889566470453099</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3752970  MarketName = Correct Score  MarketID = 223425253  SelectorError = 0.9803988078209418</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3752971  MarketName = Correct Score  MarketID = 223425281  SelectorError = 0.9773461258855529</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715100  MarketName = Correct Score  MarketID = 221574484  SelectorError = 0.9388182616867881</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715101  MarketName = Correct Score  MarketID = 221574532  SelectorError = 0.917624746800159</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715105  MarketName = Correct Score  MarketID = 221574940  SelectorError = 0.9317735977046264</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715107  MarketName = Correct Score  MarketID = 221575222  SelectorError = 0.9253026040780258</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715108  MarketName = Correct Score  MarketID = 221575352  SelectorError = 0.9712207649177432</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715109  MarketName = Correct Score  MarketID = 221575405  SelectorError = 0.9758814900878847</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715111  MarketName = Correct Score  MarketID = 221575635  SelectorError = 0.9403979265428802</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715114  MarketName = Correct Score  MarketID = 221575927  SelectorError = 0.9392174037288578</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715115  MarketName = Correct Score  MarketID = 221576300  SelectorError = 0.9677009969228949</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715118  MarketName = Correct Score  MarketID = 221576518  SelectorError = 0.9599330451733197</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715119  MarketName = Correct Score  MarketID = 221576627  SelectorError = 0.962044116555791</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715120  MarketName = Correct Score  MarketID = 221576929  SelectorError = 0.9874196047420769</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715121  MarketName = Correct Score  MarketID = 221576956  SelectorError = 0.9675866712683814</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715122  MarketName = Correct Score  MarketID = 221577077  SelectorError = 0.9671926678128993</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715123  MarketName = Correct Score  MarketID = 221577393  SelectorError = 0.9690966214098528</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715125  MarketName = Correct Score  MarketID = 221577197  SelectorError = 0.9174204777293082</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715126  MarketName = Correct Score  MarketID = 221577843  SelectorError = 0.9751757318656811</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715127  MarketName = Correct Score  MarketID = 221577773  SelectorError = 0.9686670371827485</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715128  MarketName = Correct Score  MarketID = 221577693  SelectorError = 0.9145374176713906</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715129  MarketName = Correct Score  MarketID = 221578036  SelectorError = 0.9758814900878847</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715130  MarketName = Correct Score  MarketID = 221578101  SelectorError = 0.9663418899382883</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715133  MarketName = Correct Score  MarketID = 221578210  SelectorError = 0.9717468928204036</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715134  MarketName = Correct Score  MarketID = 221578337  SelectorError = 0.9667287539164653</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715140  MarketName = Correct Score  MarketID = 221578601  SelectorError = 0.9658985665854596</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715141  MarketName = Correct Score  MarketID = 221578679  SelectorError = 0.9632855265753856</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715147  MarketName = Correct Score  MarketID = 221579411  SelectorError = 0.9851967443932295</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715150  MarketName = Correct Score  MarketID = 221579480  SelectorError = 0.9328252685848103</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715151  MarketName = Correct Score  MarketID = 221579605  SelectorError = 0.9605814547862817</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715152  MarketName = Correct Score  MarketID = 221579917  SelectorError = 0.9739728623431654</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715153  MarketName = Correct Score  MarketID = 221579912  SelectorError = 0.9664598472505926</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715154  MarketName = Correct Score  MarketID = 221580147  SelectorError = 0.9809949630580828</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715156  MarketName = Correct Score  MarketID = 221580124  SelectorError = 0.969174305670529</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715163  MarketName = Correct Score  MarketID = 221580457  SelectorError = 0.9812146387075715</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715176  MarketName = Correct Score  MarketID = 221581024  SelectorError = 0.9767573444546791</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715180  MarketName = Correct Score  MarketID = 221581925  SelectorError = 0.964662042260003</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715181  MarketName = Correct Score  MarketID = 221581711  SelectorError = 0.9712560427108942</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715182  MarketName = Correct Score  MarketID = 221581704  SelectorError = 0.9612246745598784</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715194  MarketName = Correct Score  MarketID = 221582795  SelectorError = 0.9739029060405217</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715210  MarketName = Correct Score  MarketID = 221583419  SelectorError = 0.968831460089292</t>
   </si>
 </sst>
 </file>
@@ -458,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A134"/>
+  <dimension ref="A1:A125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1092,51 +1065,6 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
@@ -12,42 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
-  <si>
-    <t>This market works for Client  GameID = 3751476  MarketName = Correct Score  MarketID = 223544407  SelectorError = 0.939538929969552</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751477  MarketName = Correct Score  MarketID = 223544428  SelectorError = 0.9433962264150942</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751478  MarketName = Correct Score  MarketID = 223544449  SelectorError = 0.9433962264150942</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751482  MarketName = Correct Score  MarketID = 223542900  SelectorError = 0.9401488748332687</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751483  MarketName = Correct Score  MarketID = 223544225  SelectorError = 0.9433962264150942</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751484  MarketName = Correct Score  MarketID = 223544251  SelectorError = 0.9433962264150942</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754991  MarketName = Correct Score  MarketID = 223522008  SelectorError = 0.9480093920127819</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747563  MarketName = Correct Score  MarketID = 223166808  SelectorError = 0.9339065682019214</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754449  MarketName = Correct Score  MarketID = 223542899  SelectorError = 0.9318181818181819</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754450  MarketName = Correct Score  MarketID = 223543013  SelectorError = 0.9237063977516945</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754451  MarketName = Correct Score  MarketID = 223542912  SelectorError = 0.924031760341181</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754453  MarketName = Correct Score  MarketID = 223542931  SelectorError = 0.9318181818181819</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+  <si>
+    <t>This market works for Client  GameID = 3765891  MarketName = Correct Score  MarketID = 224146916  SelectorError = 0.966522814434585</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3766041  MarketName = Correct Score  MarketID = 224150002  SelectorError = 0.9716724162163773</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759591  MarketName = Correct Score  MarketID = 223751899  SelectorError = 0.935687254107293</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759603  MarketName = Correct Score  MarketID = 223752088  SelectorError = 0.963627431518352</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759609  MarketName = Correct Score  MarketID = 223939993  SelectorError = 0.9587205675691157</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759610  MarketName = Correct Score  MarketID = 223752212  SelectorError = 0.9751550296462829</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759612  MarketName = Correct Score  MarketID = 223752265  SelectorError = 0.9653583918724155</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759613  MarketName = Correct Score  MarketID = 223752339  SelectorError = 0.9687297109616932</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759617  MarketName = Correct Score  MarketID = 223752480  SelectorError = 0.9619748584951683</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759623  MarketName = Correct Score  MarketID = 223752592  SelectorError = 0.9350162790625924</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3765055  MarketName = Correct Score  MarketID = 224136772  SelectorError = 0.9324708853691362</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3765057  MarketName = Correct Score  MarketID = 224137053  SelectorError = 0.9229924542754275</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3756363  MarketName = Correct Score  MarketID = 223592723  SelectorError = 0.9266712476685973</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3766039  MarketName = Correct Score  MarketID = 224144434  SelectorError = 0.9481837606837608</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3765889  MarketName = Correct Score  MarketID = 224142208  SelectorError = 0.958707277824035</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3765890  MarketName = Correct Score  MarketID = 224144579  SelectorError = 0.9395841790206375</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3765892  MarketName = Correct Score  MarketID = 224144508  SelectorError = 0.9983605647546325</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3765893  MarketName = Correct Score  MarketID = 224144448  SelectorError = 0.9617549824307289</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763256  MarketName = Correct Score  MarketID = 224072163  SelectorError = 0.9641536430047757</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3688776  MarketName = Correct Score  MarketID = 220711609  SelectorError = 0.9663043221589941</t>
@@ -56,232 +77,271 @@
     <t>This market works for Client  GameID = 3688779  MarketName = Correct Score  MarketID = 220711654  SelectorError = 0.9936809107554053</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3720487  MarketName = Correct Score  MarketID = 222283192  SelectorError = 0.9869891363230204</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750328  MarketName = Correct Score  MarketID = 223383985  SelectorError = 0.9521698520371298</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750329  MarketName = Correct Score  MarketID = 223449942  SelectorError = 0.9520137016730932</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753555  MarketName = Correct Score  MarketID = 223479703  SelectorError = 0.9893963315467812</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753556  MarketName = Correct Score  MarketID = 223479735  SelectorError = 0.9900480373951175</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753557  MarketName = Correct Score  MarketID = 223479738  SelectorError = 0.9752243961311771</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753560  MarketName = Correct Score  MarketID = 223479741  SelectorError = 0.987830126338354</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749630  MarketName = Correct Score  MarketID = 223263404  SelectorError = 0.9589997158619201</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749644  MarketName = Correct Score  MarketID = 223264116  SelectorError = 0.960621018709888</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749646  MarketName = Correct Score  MarketID = 223264210  SelectorError = 0.9597829373847281</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749649  MarketName = Correct Score  MarketID = 223264354  SelectorError = 0.959937658894932</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749650  MarketName = Correct Score  MarketID = 223264403  SelectorError = 0.9572913480143199</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749651  MarketName = Correct Score  MarketID = 223264456  SelectorError = 0.9583443774992997</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749652  MarketName = Correct Score  MarketID = 223264496  SelectorError = 0.9599711422484246</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749653  MarketName = Correct Score  MarketID = 223264536  SelectorError = 0.9609852007142248</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3749655  MarketName = Correct Score  MarketID = 223264615  SelectorError = 0.9589561833621039</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754977  MarketName = Correct Score  MarketID = 223515494  SelectorError = 0.9454298221917935</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754978  MarketName = Correct Score  MarketID = 223512992  SelectorError = 0.9589301069139773</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754990  MarketName = Correct Score  MarketID = 223513045  SelectorError = 0.9556288763607589</t>
+    <t>This market works for Client  GameID = 3720487  MarketName = Correct Score  MarketID = 222283192  SelectorError = 0.9914660649954765</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750328  MarketName = Correct Score  MarketID = 223383985  SelectorError = 0.9409381168001858</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3750329  MarketName = Correct Score  MarketID = 223449942  SelectorError = 0.9409381168001858</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3756067  MarketName = Correct Score  MarketID = 223571547  SelectorError = 0.9450074016553579</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3756050  MarketName = Correct Score  MarketID = 223571108  SelectorError = 0.9126641740964433</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3756052  MarketName = Correct Score  MarketID = 223571140  SelectorError = 0.9093286659826585</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3756054  MarketName = Correct Score  MarketID = 223571244  SelectorError = 0.9349060725207514</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758839  MarketName = Correct Score  MarketID = 224007635  SelectorError = 0.9343728650082386</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3748596  MarketName = Correct Score  MarketID = 223218857  SelectorError = 0.9786864369717752</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3754001  MarketName = Correct Score  MarketID = 223480770  SelectorError = 0.9895831201816869</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754358  MarketName = Correct Score  MarketID = 223534271  SelectorError = 0.9760488972068891</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754454  MarketName = Correct Score  MarketID = 223525461  SelectorError = 0.9817948335262664</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750729  MarketName = Correct Score  MarketID = 223305950  SelectorError = 0.9396064945976045</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750730  MarketName = Correct Score  MarketID = 223305976  SelectorError = 0.9466477480399786</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751265  MarketName = Correct Score  MarketID = 223411508  SelectorError = 0.9452220262290053</t>
+    <t>This market works for Client  GameID = 3747270  MarketName = Correct Score  MarketID = 223725150  SelectorError = 0.9551520056818783</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3756065  MarketName = Correct Score  MarketID = 223571517  SelectorError = 0.9068758878258497</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763286  MarketName = Correct Score  MarketID = 224138466  SelectorError = 0.9512387106832205</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763258  MarketName = Correct Score  MarketID = 223984421  SelectorError = 0.9852598590188802</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763259  MarketName = Correct Score  MarketID = 223984502  SelectorError = 0.95071104974377</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763260  MarketName = Correct Score  MarketID = 224071965  SelectorError = 0.9806325073198385</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763261  MarketName = Correct Score  MarketID = 224072228  SelectorError = 0.9630954356203603</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3743950  MarketName = Correct Score  MarketID = 223479659  SelectorError = 0.9657752742303889</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3751485  MarketName = Correct Score  MarketID = 223356487  SelectorError = 0.9428601979460847</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3752966  MarketName = Correct Score  MarketID = 223423481  SelectorError = 0.9443050119432913</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3752967  MarketName = Correct Score  MarketID = 223425506  SelectorError = 0.9431791691508924</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754002  MarketName = Correct Score  MarketID = 223490186  SelectorError = 0.9830868279587501</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754334  MarketName = Correct Score  MarketID = 223490842  SelectorError = 0.9631260116847151</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754335  MarketName = Correct Score  MarketID = 223494186  SelectorError = 0.9717137728926776</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754734  MarketName = Correct Score  MarketID = 223509420  SelectorError = 0.9683745983163603</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754992  MarketName = Correct Score  MarketID = 223512980  SelectorError = 0.9767602156949494</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715063  MarketName = Correct Score  MarketID = 221572178  SelectorError = 0.9466511407254065</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715066  MarketName = Correct Score  MarketID = 221572315  SelectorError = 0.9989532332545689</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715069  MarketName = Correct Score  MarketID = 221572436  SelectorError = 0.9803036678921483</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715071  MarketName = Correct Score  MarketID = 221572519  SelectorError = 0.9692019269375722</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715080  MarketName = Correct Score  MarketID = 221572894  SelectorError = 0.9700185869343355</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715082  MarketName = Correct Score  MarketID = 221572931  SelectorError = 0.9652633643799431</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754360  MarketName = Correct Score  MarketID = 223491288  SelectorError = 0.9976768982473045</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754365  MarketName = Correct Score  MarketID = 223491341  SelectorError = 0.9975489140213278</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754367  MarketName = Correct Score  MarketID = 223491362  SelectorError = 0.9963996563970811</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3739406  MarketName = Correct Score  MarketID = 222840298  SelectorError = 0.9827721836872696</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3738618  MarketName = Correct Score  MarketID = 222808136  SelectorError = 0.9886986306711286</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740302  MarketName = Correct Score  MarketID = 222875430  SelectorError = 0.9726148178668874</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740327  MarketName = Correct Score  MarketID = 222875741  SelectorError = 0.9698867972151364</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740331  MarketName = Correct Score  MarketID = 222875863  SelectorError = 0.9837465359007548</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740332  MarketName = Correct Score  MarketID = 222875917  SelectorError = 0.9895182732185972</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746547  MarketName = Correct Score  MarketID = 223128852  SelectorError = 0.9885370849227966</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746549  MarketName = Correct Score  MarketID = 223128888  SelectorError = 0.9867699529729506</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750703  MarketName = Correct Score  MarketID = 223305640  SelectorError = 0.9661727295903593</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751765  MarketName = Correct Score  MarketID = 223366565  SelectorError = 0.9687718852116493</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3751766  MarketName = Correct Score  MarketID = 223366575  SelectorError = 0.9721256117719317</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753548  MarketName = Correct Score  MarketID = 223459628  SelectorError = 0.9536145640675235</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740333  MarketName = Correct Score  MarketID = 222875926  SelectorError = 0.9859591722530326</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740334  MarketName = Correct Score  MarketID = 222875938  SelectorError = 0.9794874415619109</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740335  MarketName = Correct Score  MarketID = 222875948  SelectorError = 0.9911138213099275</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3740336  MarketName = Correct Score  MarketID = 222875965  SelectorError = 0.9741535971280652</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746556  MarketName = Correct Score  MarketID = 223128930  SelectorError = 0.9863998706652785</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3746558  MarketName = Correct Score  MarketID = 223128923  SelectorError = 0.9983126752773945</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753535  MarketName = Correct Score  MarketID = 223459646  SelectorError = 0.9795221508623961</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753536  MarketName = Correct Score  MarketID = 223459650  SelectorError = 0.9849029070368236</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753550  MarketName = Correct Score  MarketID = 223459654  SelectorError = 0.9897419601130996</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753551  MarketName = Correct Score  MarketID = 223459662  SelectorError = 0.9757684954365887</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750693  MarketName = Correct Score  MarketID = 223305796  SelectorError = 0.995173143781191</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750694  MarketName = Correct Score  MarketID = 223305810  SelectorError = 0.987379800606676</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754336  MarketName = Correct Score  MarketID = 223490872  SelectorError = 0.9812238650681822</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3754344  MarketName = Correct Score  MarketID = 223491094  SelectorError = 0.9889566470453099</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3752970  MarketName = Correct Score  MarketID = 223425253  SelectorError = 0.9803988078209418</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3752971  MarketName = Correct Score  MarketID = 223425281  SelectorError = 0.9773461258855529</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715100  MarketName = Correct Score  MarketID = 221574484  SelectorError = 0.9388182616867881</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715101  MarketName = Correct Score  MarketID = 221574532  SelectorError = 0.917624746800159</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715105  MarketName = Correct Score  MarketID = 221574940  SelectorError = 0.9317735977046264</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715107  MarketName = Correct Score  MarketID = 221575222  SelectorError = 0.9253026040780258</t>
+    <t>This market works for Client  GameID = 3743954  MarketName = Correct Score  MarketID = 223741126  SelectorError = 0.953071349788176</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763278  MarketName = Correct Score  MarketID = 224029694  SelectorError = 0.9477124540227639</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763280  MarketName = Correct Score  MarketID = 224029740  SelectorError = 0.9489574969027024</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715072  MarketName = Correct Score  MarketID = 222636253  SelectorError = 0.9343006943442121</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715073  MarketName = Correct Score  MarketID = 221572593  SelectorError = 0.9449649298736287</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715063  MarketName = Correct Score  MarketID = 221572178  SelectorError = 0.9240537043028147</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715066  MarketName = Correct Score  MarketID = 221572315  SelectorError = 0.9753049286440071</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715068  MarketName = Correct Score  MarketID = 221572464  SelectorError = 0.9964710546061423</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715069  MarketName = Correct Score  MarketID = 221572436  SelectorError = 0.9730315980315982</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715071  MarketName = Correct Score  MarketID = 221572519  SelectorError = 0.9570546387307716</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715080  MarketName = Correct Score  MarketID = 221572894  SelectorError = 0.9587012247754231</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715082  MarketName = Correct Score  MarketID = 221572931  SelectorError = 0.9582190437888773</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3762428  MarketName = Correct Score  MarketID = 223955506  SelectorError = 0.952724358974359</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3762429  MarketName = Correct Score  MarketID = 223955515  SelectorError = 0.9860630408306046</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3762430  MarketName = Correct Score  MarketID = 223955522  SelectorError = 0.9633049437713411</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3762431  MarketName = Correct Score  MarketID = 223955529  SelectorError = 0.964325105739379</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3762432  MarketName = Correct Score  MarketID = 223955538  SelectorError = 0.9662329273345924</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763248  MarketName = Correct Score  MarketID = 223982501  SelectorError = 0.9867176259301611</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763249  MarketName = Correct Score  MarketID = 223982508  SelectorError = 0.9860630408306044</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763251  MarketName = Correct Score  MarketID = 223982551  SelectorError = 0.9746478585632545</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763253  MarketName = Correct Score  MarketID = 223982574  SelectorError = 0.9664290813257466</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763254  MarketName = Correct Score  MarketID = 223982589  SelectorError = 0.964325105739379</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763255  MarketName = Correct Score  MarketID = 223982600  SelectorError = 0.9912565673510187</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763263  MarketName = Correct Score  MarketID = 223982805  SelectorError = 0.9767662399241346</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763265  MarketName = Correct Score  MarketID = 223982856  SelectorError = 0.9665530801230751</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763267  MarketName = Correct Score  MarketID = 223982883  SelectorError = 0.9758314811046377</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763269  MarketName = Correct Score  MarketID = 223982901  SelectorError = 0.9746478585632545</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763272  MarketName = Correct Score  MarketID = 223982925  SelectorError = 0.9767662399241346</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763275  MarketName = Correct Score  MarketID = 223982942  SelectorError = 0.9746478585632545</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763279  MarketName = Correct Score  MarketID = 223982967  SelectorError = 0.9633049437713411</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758840  MarketName = Correct Score  MarketID = 223824148  SelectorError = 0.9113173121017865</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758842  MarketName = Correct Score  MarketID = 223824197  SelectorError = 0.9276040144207347</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758849  MarketName = Correct Score  MarketID = 223824238  SelectorError = 0.9394939493949395</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758850  MarketName = Correct Score  MarketID = 223824258  SelectorError = 0.9433962264150942</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758853  MarketName = Correct Score  MarketID = 223824343  SelectorError = 0.9433962264150942</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758854  MarketName = Correct Score  MarketID = 223824172  SelectorError = 0.9252999830995438</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758855  MarketName = Correct Score  MarketID = 223824350  SelectorError = 0.9222362337116435</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758856  MarketName = Correct Score  MarketID = 223824204  SelectorError = 0.9242340543067182</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758857  MarketName = Correct Score  MarketID = 223824412  SelectorError = 0.9251564455569462</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758858  MarketName = Correct Score  MarketID = 223824252  SelectorError = 0.9260922499650719</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758859  MarketName = Correct Score  MarketID = 223824475  SelectorError = 0.9212703833707533</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758862  MarketName = Correct Score  MarketID = 223824555  SelectorError = 0.9264013692768507</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758865  MarketName = Correct Score  MarketID = 223824578  SelectorError = 0.9260922499650719</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763336  MarketName = Correct Score  MarketID = 223984350  SelectorError = 0.9298466468299381</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763337  MarketName = Correct Score  MarketID = 223984409  SelectorError = 0.9315222807131562</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763339  MarketName = Correct Score  MarketID = 223984415  SelectorError = 0.9259600161996981</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759901  MarketName = Correct Score  MarketID = 223772230  SelectorError = 0.9296455989062993</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759903  MarketName = Correct Score  MarketID = 223772288  SelectorError = 0.9278429568284641</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759917  MarketName = Correct Score  MarketID = 223773149  SelectorError = 0.9273504273504274</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759918  MarketName = Correct Score  MarketID = 223773155  SelectorError = 0.9238057639163049</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3764530  MarketName = Correct Score  MarketID = 224071876  SelectorError = 0.9343728650082386</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3764532  MarketName = Correct Score  MarketID = 224071859  SelectorError = 0.9273027674514664</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3764535  MarketName = Correct Score  MarketID = 224071925  SelectorError = 0.9349060725207514</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3764537  MarketName = Correct Score  MarketID = 224071872  SelectorError = 0.928740290442418</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759596  MarketName = Correct Score  MarketID = 223754581  SelectorError = 0.9078936866469789</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759598  MarketName = Correct Score  MarketID = 223754603  SelectorError = 0.9126641740964433</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759600  MarketName = Correct Score  MarketID = 223752022  SelectorError = 0.9105112871073758</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759730  MarketName = Correct Score  MarketID = 223761006  SelectorError = 0.9152580914121125</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759747  MarketName = Correct Score  MarketID = 223761031  SelectorError = 0.912482842616042</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759601  MarketName = Correct Score  MarketID = 223759633  SelectorError = 0.920378399684667</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759602  MarketName = Correct Score  MarketID = 223759634  SelectorError = 0.9229133439659756</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759604  MarketName = Correct Score  MarketID = 223759636  SelectorError = 0.9193987542426616</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759605  MarketName = Correct Score  MarketID = 223759637  SelectorError = 0.9193747429041546</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3759606  MarketName = Correct Score  MarketID = 223759638  SelectorError = 0.9211892402076451</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753535  MarketName = Correct Score  MarketID = 223459646  SelectorError = 0.9688902066081415</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753536  MarketName = Correct Score  MarketID = 223459650  SelectorError = 0.9739735590558052</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753550  MarketName = Correct Score  MarketID = 223459654  SelectorError = 0.9791672492174148</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3753551  MarketName = Correct Score  MarketID = 223459662  SelectorError = 0.9670804906578162</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3758424  MarketName = Correct Score  MarketID = 223716544  SelectorError = 0.9800360957969751</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3763241  MarketName = Correct Score  MarketID = 223982192  SelectorError = 0.9799929909911008</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3766038  MarketName = Correct Score  MarketID = 224144410  SelectorError = 0.9282377256384865</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3766045  MarketName = Correct Score  MarketID = 224144542  SelectorError = 0.9387647831277596</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715108  MarketName = Correct Score  MarketID = 221575352  SelectorError = 0.9712207649177432</t>
@@ -290,19 +350,13 @@
     <t>This market works for Client  GameID = 3715109  MarketName = Correct Score  MarketID = 221575405  SelectorError = 0.9758814900878847</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715111  MarketName = Correct Score  MarketID = 221575635  SelectorError = 0.9403979265428802</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715114  MarketName = Correct Score  MarketID = 221575927  SelectorError = 0.9392174037288578</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715115  MarketName = Correct Score  MarketID = 221576300  SelectorError = 0.9677009969228949</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715118  MarketName = Correct Score  MarketID = 221576518  SelectorError = 0.9599330451733197</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715119  MarketName = Correct Score  MarketID = 221576627  SelectorError = 0.962044116555791</t>
+    <t>This market works for Client  GameID = 3715118  MarketName = Correct Score  MarketID = 221576518  SelectorError = 0.9669534469509466</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3715119  MarketName = Correct Score  MarketID = 221576627  SelectorError = 0.9422074491136423</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715120  MarketName = Correct Score  MarketID = 221576929  SelectorError = 0.9874196047420769</t>
@@ -311,24 +365,18 @@
     <t>This market works for Client  GameID = 3715121  MarketName = Correct Score  MarketID = 221576956  SelectorError = 0.9675866712683814</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715122  MarketName = Correct Score  MarketID = 221577077  SelectorError = 0.9671926678128993</t>
+    <t>This market works for Client  GameID = 3715122  MarketName = Correct Score  MarketID = 221577077  SelectorError = 0.938224271528365</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715123  MarketName = Correct Score  MarketID = 221577393  SelectorError = 0.9690966214098528</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715125  MarketName = Correct Score  MarketID = 221577197  SelectorError = 0.9174204777293082</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715126  MarketName = Correct Score  MarketID = 221577843  SelectorError = 0.9751757318656811</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715127  MarketName = Correct Score  MarketID = 221577773  SelectorError = 0.9686670371827485</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715128  MarketName = Correct Score  MarketID = 221577693  SelectorError = 0.9145374176713906</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715129  MarketName = Correct Score  MarketID = 221578036  SelectorError = 0.9758814900878847</t>
   </si>
   <si>
@@ -338,7 +386,7 @@
     <t>This market works for Client  GameID = 3715133  MarketName = Correct Score  MarketID = 221578210  SelectorError = 0.9717468928204036</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715134  MarketName = Correct Score  MarketID = 221578337  SelectorError = 0.9667287539164653</t>
+    <t>This market works for Client  GameID = 3715134  MarketName = Correct Score  MarketID = 221578337  SelectorError = 0.9709705074965986</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3715140  MarketName = Correct Score  MarketID = 221578601  SelectorError = 0.9658985665854596</t>
@@ -350,9 +398,6 @@
     <t>This market works for Client  GameID = 3715147  MarketName = Correct Score  MarketID = 221579411  SelectorError = 0.9851967443932295</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3715150  MarketName = Correct Score  MarketID = 221579480  SelectorError = 0.9328252685848103</t>
-  </si>
-  <si>
     <t>This market works for Client  GameID = 3715151  MarketName = Correct Score  MarketID = 221579605  SelectorError = 0.9605814547862817</t>
   </si>
   <si>
@@ -360,33 +405,6 @@
   </si>
   <si>
     <t>This market works for Client  GameID = 3715153  MarketName = Correct Score  MarketID = 221579912  SelectorError = 0.9664598472505926</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715154  MarketName = Correct Score  MarketID = 221580147  SelectorError = 0.9809949630580828</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715156  MarketName = Correct Score  MarketID = 221580124  SelectorError = 0.969174305670529</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715163  MarketName = Correct Score  MarketID = 221580457  SelectorError = 0.9812146387075715</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715176  MarketName = Correct Score  MarketID = 221581024  SelectorError = 0.9767573444546791</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715180  MarketName = Correct Score  MarketID = 221581925  SelectorError = 0.964662042260003</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715181  MarketName = Correct Score  MarketID = 221581711  SelectorError = 0.9712560427108942</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715182  MarketName = Correct Score  MarketID = 221581704  SelectorError = 0.9612246745598784</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715194  MarketName = Correct Score  MarketID = 221582795  SelectorError = 0.9739029060405217</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715210  MarketName = Correct Score  MarketID = 221583419  SelectorError = 0.968831460089292</t>
   </si>
 </sst>
 </file>
@@ -431,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:A131"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1065,6 +1083,36 @@
         <v>124</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_003_BrokenMarkets/1CraftbetE-sportsDataErrorMarketsList.xlsx
@@ -12,399 +12,345 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
-  <si>
-    <t>This market works for Client  GameID = 3765891  MarketName = Correct Score  MarketID = 224146916  SelectorError = 0.966522814434585</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3766041  MarketName = Correct Score  MarketID = 224150002  SelectorError = 0.9716724162163773</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759591  MarketName = Correct Score  MarketID = 223751899  SelectorError = 0.935687254107293</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759603  MarketName = Correct Score  MarketID = 223752088  SelectorError = 0.963627431518352</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759609  MarketName = Correct Score  MarketID = 223939993  SelectorError = 0.9587205675691157</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759610  MarketName = Correct Score  MarketID = 223752212  SelectorError = 0.9751550296462829</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759612  MarketName = Correct Score  MarketID = 223752265  SelectorError = 0.9653583918724155</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759613  MarketName = Correct Score  MarketID = 223752339  SelectorError = 0.9687297109616932</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759617  MarketName = Correct Score  MarketID = 223752480  SelectorError = 0.9619748584951683</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759623  MarketName = Correct Score  MarketID = 223752592  SelectorError = 0.9350162790625924</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3765055  MarketName = Correct Score  MarketID = 224136772  SelectorError = 0.9324708853691362</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3765057  MarketName = Correct Score  MarketID = 224137053  SelectorError = 0.9229924542754275</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3756363  MarketName = Correct Score  MarketID = 223592723  SelectorError = 0.9266712476685973</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3766039  MarketName = Correct Score  MarketID = 224144434  SelectorError = 0.9481837606837608</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3765889  MarketName = Correct Score  MarketID = 224142208  SelectorError = 0.958707277824035</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3765890  MarketName = Correct Score  MarketID = 224144579  SelectorError = 0.9395841790206375</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3765892  MarketName = Correct Score  MarketID = 224144508  SelectorError = 0.9983605647546325</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3765893  MarketName = Correct Score  MarketID = 224144448  SelectorError = 0.9617549824307289</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763256  MarketName = Correct Score  MarketID = 224072163  SelectorError = 0.9641536430047757</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3688776  MarketName = Correct Score  MarketID = 220711609  SelectorError = 0.9663043221589941</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3688779  MarketName = Correct Score  MarketID = 220711654  SelectorError = 0.9936809107554053</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3720487  MarketName = Correct Score  MarketID = 222283192  SelectorError = 0.9914660649954765</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750328  MarketName = Correct Score  MarketID = 223383985  SelectorError = 0.9409381168001858</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3750329  MarketName = Correct Score  MarketID = 223449942  SelectorError = 0.9409381168001858</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3756067  MarketName = Correct Score  MarketID = 223571547  SelectorError = 0.9450074016553579</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3756050  MarketName = Correct Score  MarketID = 223571108  SelectorError = 0.9126641740964433</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3756052  MarketName = Correct Score  MarketID = 223571140  SelectorError = 0.9093286659826585</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3756054  MarketName = Correct Score  MarketID = 223571244  SelectorError = 0.9349060725207514</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758839  MarketName = Correct Score  MarketID = 224007635  SelectorError = 0.9343728650082386</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3748596  MarketName = Correct Score  MarketID = 223218857  SelectorError = 0.9786864369717752</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3747270  MarketName = Correct Score  MarketID = 223725150  SelectorError = 0.9551520056818783</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3756065  MarketName = Correct Score  MarketID = 223571517  SelectorError = 0.9068758878258497</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763286  MarketName = Correct Score  MarketID = 224138466  SelectorError = 0.9512387106832205</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763258  MarketName = Correct Score  MarketID = 223984421  SelectorError = 0.9852598590188802</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763259  MarketName = Correct Score  MarketID = 223984502  SelectorError = 0.95071104974377</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763260  MarketName = Correct Score  MarketID = 224071965  SelectorError = 0.9806325073198385</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763261  MarketName = Correct Score  MarketID = 224072228  SelectorError = 0.9630954356203603</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3743950  MarketName = Correct Score  MarketID = 223479659  SelectorError = 0.9657752742303889</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3743954  MarketName = Correct Score  MarketID = 223741126  SelectorError = 0.953071349788176</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763278  MarketName = Correct Score  MarketID = 224029694  SelectorError = 0.9477124540227639</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763280  MarketName = Correct Score  MarketID = 224029740  SelectorError = 0.9489574969027024</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715072  MarketName = Correct Score  MarketID = 222636253  SelectorError = 0.9343006943442121</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715073  MarketName = Correct Score  MarketID = 221572593  SelectorError = 0.9449649298736287</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715063  MarketName = Correct Score  MarketID = 221572178  SelectorError = 0.9240537043028147</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715066  MarketName = Correct Score  MarketID = 221572315  SelectorError = 0.9753049286440071</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715068  MarketName = Correct Score  MarketID = 221572464  SelectorError = 0.9964710546061423</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715069  MarketName = Correct Score  MarketID = 221572436  SelectorError = 0.9730315980315982</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715071  MarketName = Correct Score  MarketID = 221572519  SelectorError = 0.9570546387307716</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715080  MarketName = Correct Score  MarketID = 221572894  SelectorError = 0.9587012247754231</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715082  MarketName = Correct Score  MarketID = 221572931  SelectorError = 0.9582190437888773</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3762428  MarketName = Correct Score  MarketID = 223955506  SelectorError = 0.952724358974359</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3762429  MarketName = Correct Score  MarketID = 223955515  SelectorError = 0.9860630408306046</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3762430  MarketName = Correct Score  MarketID = 223955522  SelectorError = 0.9633049437713411</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3762431  MarketName = Correct Score  MarketID = 223955529  SelectorError = 0.964325105739379</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3762432  MarketName = Correct Score  MarketID = 223955538  SelectorError = 0.9662329273345924</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763248  MarketName = Correct Score  MarketID = 223982501  SelectorError = 0.9867176259301611</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763249  MarketName = Correct Score  MarketID = 223982508  SelectorError = 0.9860630408306044</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763251  MarketName = Correct Score  MarketID = 223982551  SelectorError = 0.9746478585632545</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763253  MarketName = Correct Score  MarketID = 223982574  SelectorError = 0.9664290813257466</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763254  MarketName = Correct Score  MarketID = 223982589  SelectorError = 0.964325105739379</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763255  MarketName = Correct Score  MarketID = 223982600  SelectorError = 0.9912565673510187</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763263  MarketName = Correct Score  MarketID = 223982805  SelectorError = 0.9767662399241346</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763265  MarketName = Correct Score  MarketID = 223982856  SelectorError = 0.9665530801230751</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763267  MarketName = Correct Score  MarketID = 223982883  SelectorError = 0.9758314811046377</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763269  MarketName = Correct Score  MarketID = 223982901  SelectorError = 0.9746478585632545</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763272  MarketName = Correct Score  MarketID = 223982925  SelectorError = 0.9767662399241346</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763275  MarketName = Correct Score  MarketID = 223982942  SelectorError = 0.9746478585632545</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763279  MarketName = Correct Score  MarketID = 223982967  SelectorError = 0.9633049437713411</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758840  MarketName = Correct Score  MarketID = 223824148  SelectorError = 0.9113173121017865</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758842  MarketName = Correct Score  MarketID = 223824197  SelectorError = 0.9276040144207347</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758849  MarketName = Correct Score  MarketID = 223824238  SelectorError = 0.9394939493949395</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758850  MarketName = Correct Score  MarketID = 223824258  SelectorError = 0.9433962264150942</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758853  MarketName = Correct Score  MarketID = 223824343  SelectorError = 0.9433962264150942</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758854  MarketName = Correct Score  MarketID = 223824172  SelectorError = 0.9252999830995438</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758855  MarketName = Correct Score  MarketID = 223824350  SelectorError = 0.9222362337116435</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758856  MarketName = Correct Score  MarketID = 223824204  SelectorError = 0.9242340543067182</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758857  MarketName = Correct Score  MarketID = 223824412  SelectorError = 0.9251564455569462</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758858  MarketName = Correct Score  MarketID = 223824252  SelectorError = 0.9260922499650719</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758859  MarketName = Correct Score  MarketID = 223824475  SelectorError = 0.9212703833707533</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758862  MarketName = Correct Score  MarketID = 223824555  SelectorError = 0.9264013692768507</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758865  MarketName = Correct Score  MarketID = 223824578  SelectorError = 0.9260922499650719</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763336  MarketName = Correct Score  MarketID = 223984350  SelectorError = 0.9298466468299381</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763337  MarketName = Correct Score  MarketID = 223984409  SelectorError = 0.9315222807131562</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763339  MarketName = Correct Score  MarketID = 223984415  SelectorError = 0.9259600161996981</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759901  MarketName = Correct Score  MarketID = 223772230  SelectorError = 0.9296455989062993</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759903  MarketName = Correct Score  MarketID = 223772288  SelectorError = 0.9278429568284641</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759917  MarketName = Correct Score  MarketID = 223773149  SelectorError = 0.9273504273504274</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759918  MarketName = Correct Score  MarketID = 223773155  SelectorError = 0.9238057639163049</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3764530  MarketName = Correct Score  MarketID = 224071876  SelectorError = 0.9343728650082386</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3764532  MarketName = Correct Score  MarketID = 224071859  SelectorError = 0.9273027674514664</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3764535  MarketName = Correct Score  MarketID = 224071925  SelectorError = 0.9349060725207514</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3764537  MarketName = Correct Score  MarketID = 224071872  SelectorError = 0.928740290442418</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759596  MarketName = Correct Score  MarketID = 223754581  SelectorError = 0.9078936866469789</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759598  MarketName = Correct Score  MarketID = 223754603  SelectorError = 0.9126641740964433</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759600  MarketName = Correct Score  MarketID = 223752022  SelectorError = 0.9105112871073758</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759730  MarketName = Correct Score  MarketID = 223761006  SelectorError = 0.9152580914121125</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759747  MarketName = Correct Score  MarketID = 223761031  SelectorError = 0.912482842616042</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759601  MarketName = Correct Score  MarketID = 223759633  SelectorError = 0.920378399684667</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759602  MarketName = Correct Score  MarketID = 223759634  SelectorError = 0.9229133439659756</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759604  MarketName = Correct Score  MarketID = 223759636  SelectorError = 0.9193987542426616</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759605  MarketName = Correct Score  MarketID = 223759637  SelectorError = 0.9193747429041546</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3759606  MarketName = Correct Score  MarketID = 223759638  SelectorError = 0.9211892402076451</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753535  MarketName = Correct Score  MarketID = 223459646  SelectorError = 0.9688902066081415</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753536  MarketName = Correct Score  MarketID = 223459650  SelectorError = 0.9739735590558052</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753550  MarketName = Correct Score  MarketID = 223459654  SelectorError = 0.9791672492174148</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3753551  MarketName = Correct Score  MarketID = 223459662  SelectorError = 0.9670804906578162</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3758424  MarketName = Correct Score  MarketID = 223716544  SelectorError = 0.9800360957969751</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3763241  MarketName = Correct Score  MarketID = 223982192  SelectorError = 0.9799929909911008</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3766038  MarketName = Correct Score  MarketID = 224144410  SelectorError = 0.9282377256384865</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3766045  MarketName = Correct Score  MarketID = 224144542  SelectorError = 0.9387647831277596</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715108  MarketName = Correct Score  MarketID = 221575352  SelectorError = 0.9712207649177432</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715109  MarketName = Correct Score  MarketID = 221575405  SelectorError = 0.9758814900878847</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715115  MarketName = Correct Score  MarketID = 221576300  SelectorError = 0.9677009969228949</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715118  MarketName = Correct Score  MarketID = 221576518  SelectorError = 0.9669534469509466</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715119  MarketName = Correct Score  MarketID = 221576627  SelectorError = 0.9422074491136423</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715120  MarketName = Correct Score  MarketID = 221576929  SelectorError = 0.9874196047420769</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715121  MarketName = Correct Score  MarketID = 221576956  SelectorError = 0.9675866712683814</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715122  MarketName = Correct Score  MarketID = 221577077  SelectorError = 0.938224271528365</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715123  MarketName = Correct Score  MarketID = 221577393  SelectorError = 0.9690966214098528</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715126  MarketName = Correct Score  MarketID = 221577843  SelectorError = 0.9751757318656811</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715127  MarketName = Correct Score  MarketID = 221577773  SelectorError = 0.9686670371827485</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715129  MarketName = Correct Score  MarketID = 221578036  SelectorError = 0.9758814900878847</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715130  MarketName = Correct Score  MarketID = 221578101  SelectorError = 0.9663418899382883</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715133  MarketName = Correct Score  MarketID = 221578210  SelectorError = 0.9717468928204036</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715134  MarketName = Correct Score  MarketID = 221578337  SelectorError = 0.9709705074965986</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715140  MarketName = Correct Score  MarketID = 221578601  SelectorError = 0.9658985665854596</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715141  MarketName = Correct Score  MarketID = 221578679  SelectorError = 0.9632855265753856</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715147  MarketName = Correct Score  MarketID = 221579411  SelectorError = 0.9851967443932295</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715151  MarketName = Correct Score  MarketID = 221579605  SelectorError = 0.9605814547862817</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715152  MarketName = Correct Score  MarketID = 221579917  SelectorError = 0.9739728623431654</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3715153  MarketName = Correct Score  MarketID = 221579912  SelectorError = 0.9664598472505926</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+  <si>
+    <t>1This market works for Client  GameID = 3771452  MarketName = Correct Score  MarketID = 224369279  SelectorError = 0.9963382578618635</t>
+  </si>
+  <si>
+    <t>2This market works for Client  GameID = 3773644  MarketName = Correct Score  MarketID = 224501756  SelectorError = 0.9344658179793133</t>
+  </si>
+  <si>
+    <t>3This market works for Client  GameID = 3774087  MarketName = Correct Score  MarketID = 224501760  SelectorError = 0.9346760920185623</t>
+  </si>
+  <si>
+    <t>4This market works for Client  GameID = 3774559  MarketName = Correct Score  MarketID = 224517885  SelectorError = 0.9945062578220868</t>
+  </si>
+  <si>
+    <t>5This market works for Client  GameID = 3774560  MarketName = Correct Score  MarketID = 224518074  SelectorError = 0.9967145754399775</t>
+  </si>
+  <si>
+    <t>6This market works for Client  GameID = 3774987  MarketName = Correct Score  MarketID = 224519664  SelectorError = 0.947337113285336</t>
+  </si>
+  <si>
+    <t>7This market works for Client  GameID = 3759603  MarketName = Correct Score  MarketID = 223752088  SelectorError = 0.8778784911466122</t>
+  </si>
+  <si>
+    <t>8This market works for Client  GameID = 3759610  MarketName = Correct Score  MarketID = 223752212  SelectorError = 0.9523749434043292</t>
+  </si>
+  <si>
+    <t>9This market works for Client  GameID = 3759613  MarketName = Correct Score  MarketID = 223752339  SelectorError = 0.9479680998833343</t>
+  </si>
+  <si>
+    <t>10This market works for Client  GameID = 3766039  MarketName = Correct Score  MarketID = 224144434  SelectorError = 0.9493115846707008</t>
+  </si>
+  <si>
+    <t>11This market works for Client  GameID = 3766965  MarketName = Correct Score  MarketID = 224196025  SelectorError = 0.9296455989062993</t>
+  </si>
+  <si>
+    <t>12This market works for Client  GameID = 3771450  MarketName = Correct Score  MarketID = 224486380  SelectorError = 0.934065934065934</t>
+  </si>
+  <si>
+    <t>13This market works for Client  GameID = 3773971  MarketName = Correct Score  MarketID = 224484882  SelectorError = 0.9252999830995438</t>
+  </si>
+  <si>
+    <t>14This market works for Client  GameID = 3773972  MarketName = Correct Score  MarketID = 224484876  SelectorError = 0.9302325581395349</t>
+  </si>
+  <si>
+    <t>15This market works for Client  GameID = 3773973  MarketName = Correct Score  MarketID = 224484878  SelectorError = 0.9275069036025212</t>
+  </si>
+  <si>
+    <t>16This market works for Client  GameID = 3773974  MarketName = Correct Score  MarketID = 224484888  SelectorError = 0.9306693989071039</t>
+  </si>
+  <si>
+    <t>17This market works for Client  GameID = 3773975  MarketName = Correct Score  MarketID = 224484885  SelectorError = 0.9316971121702935</t>
+  </si>
+  <si>
+    <t>18This market works for Client  GameID = 3773976  MarketName = Correct Score  MarketID = 224484891  SelectorError = 0.9305546538553096</t>
+  </si>
+  <si>
+    <t>19This market works for Client  GameID = 3773977  MarketName = Correct Score  MarketID = 224484894  SelectorError = 0.9286141234736572</t>
+  </si>
+  <si>
+    <t>20This market works for Client  GameID = 3773978  MarketName = Correct Score  MarketID = 224484897  SelectorError = 0.9331657327907621</t>
+  </si>
+  <si>
+    <t>21This market works for Client  GameID = 3773979  MarketName = Correct Score  MarketID = 224484900  SelectorError = 0.9318181818181819</t>
+  </si>
+  <si>
+    <t>22This market works for Client  GameID = 3773980  MarketName = Correct Score  MarketID = 224484903  SelectorError = 0.9240537043028147</t>
+  </si>
+  <si>
+    <t>23This market works for Client  GameID = 3773981  MarketName = Correct Score  MarketID = 224484905  SelectorError = 0.919565016481316</t>
+  </si>
+  <si>
+    <t>24This market works for Client  GameID = 3773982  MarketName = Correct Score  MarketID = 224484909  SelectorError = 0.9316770186335404</t>
+  </si>
+  <si>
+    <t>25This market works for Client  GameID = 3773984  MarketName = Correct Score  MarketID = 224484912  SelectorError = 0.9339065682019214</t>
+  </si>
+  <si>
+    <t>26This market works for Client  GameID = 3773985  MarketName = Correct Score  MarketID = 224484915  SelectorError = 0.9296455989062993</t>
+  </si>
+  <si>
+    <t>27This market works for Client  GameID = 3773986  MarketName = Correct Score  MarketID = 224484918  SelectorError = 0.9316971121702935</t>
+  </si>
+  <si>
+    <t>28This market works for Client  GameID = 3773987  MarketName = Correct Score  MarketID = 224484921  SelectorError = 0.9191037795156788</t>
+  </si>
+  <si>
+    <t>29This market works for Client  GameID = 3773988  MarketName = Correct Score  MarketID = 224484924  SelectorError = 0.9255450431921021</t>
+  </si>
+  <si>
+    <t>30This market works for Client  GameID = 3773990  MarketName = Correct Score  MarketID = 224484927  SelectorError = 0.926164136866478</t>
+  </si>
+  <si>
+    <t>31This market works for Client  GameID = 3773991  MarketName = Correct Score  MarketID = 224484989  SelectorError = 0.9260922499650719</t>
+  </si>
+  <si>
+    <t>32This market works for Client  GameID = 3773992  MarketName = Correct Score  MarketID = 224485021  SelectorError = 0.9305546538553096</t>
+  </si>
+  <si>
+    <t>33This market works for Client  GameID = 3773993  MarketName = Correct Score  MarketID = 224485052  SelectorError = 0.9244896692932929</t>
+  </si>
+  <si>
+    <t>34This market works for Client  GameID = 3773994  MarketName = Correct Score  MarketID = 224485067  SelectorError = 0.9276040144207347</t>
+  </si>
+  <si>
+    <t>35This market works for Client  GameID = 3773995  MarketName = Correct Score  MarketID = 224485114  SelectorError = 0.9240537043028147</t>
+  </si>
+  <si>
+    <t>36This market works for Client  GameID = 3774000  MarketName = Correct Score  MarketID = 224485168  SelectorError = 0.9305546538553096</t>
+  </si>
+  <si>
+    <t>37This market works for Client  GameID = 3774009  MarketName = Correct Score  MarketID = 224485376  SelectorError = 0.9306693989071039</t>
+  </si>
+  <si>
+    <t>38This market works for Client  GameID = 3774012  MarketName = Correct Score  MarketID = 224485427  SelectorError = 0.9202287941394056</t>
+  </si>
+  <si>
+    <t>39This market works for Client  GameID = 3774016  MarketName = Correct Score  MarketID = 224485464  SelectorError = 0.9217372836359775</t>
+  </si>
+  <si>
+    <t>40This market works for Client  GameID = 3774018  MarketName = Correct Score  MarketID = 224485503  SelectorError = 0.9241659566100806</t>
+  </si>
+  <si>
+    <t>41This market works for Client  GameID = 3774980  MarketName = Correct Score  MarketID = 224519535  SelectorError = 0.9242340543067182</t>
+  </si>
+  <si>
+    <t>42This market works for Client  GameID = 3774983  MarketName = Correct Score  MarketID = 224519568  SelectorError = 0.9296786863326787</t>
+  </si>
+  <si>
+    <t>43This market works for Client  GameID = 3773989  MarketName = Correct Score  MarketID = 224484992  SelectorError = 0.951525353917562</t>
+  </si>
+  <si>
+    <t>44This market works for Client  GameID = 3688776  MarketName = Correct Score  MarketID = 220711609  SelectorError = 0.953003380159881</t>
+  </si>
+  <si>
+    <t>45This market works for Client  GameID = 3688779  MarketName = Correct Score  MarketID = 220711654  SelectorError = 0.9763995223403406</t>
+  </si>
+  <si>
+    <t>46This market works for Client  GameID = 3720487  MarketName = Correct Score  MarketID = 222283192  SelectorError = 0.9643210647771778</t>
+  </si>
+  <si>
+    <t>47This market works for Client  GameID = 3724523  MarketName = Correct Score  MarketID = 222281302  SelectorError = 0.9754596487227646</t>
+  </si>
+  <si>
+    <t>48This market works for Client  GameID = 3774059  MarketName = Correct Score  MarketID = 224501751  SelectorError = 0.9351415776162723</t>
+  </si>
+  <si>
+    <t>49This market works for Client  GameID = 3748549  MarketName = Correct Score  MarketID = 223214938  SelectorError = 0.9852195187100004</t>
+  </si>
+  <si>
+    <t>50This market works for Client  GameID = 3774085  MarketName = Correct Score  MarketID = 224487559  SelectorError = 0.943090976608802</t>
+  </si>
+  <si>
+    <t>51This market works for Client  GameID = 3774088  MarketName = Correct Score  MarketID = 224487672  SelectorError = 0.953160399014524</t>
+  </si>
+  <si>
+    <t>52This market works for Client  GameID = 3774979  MarketName = Correct Score  MarketID = 224519586  SelectorError = 0.9591884794981294</t>
+  </si>
+  <si>
+    <t>53This market works for Client  GameID = 3774981  MarketName = Correct Score  MarketID = 224519555  SelectorError = 0.970834295663297</t>
+  </si>
+  <si>
+    <t>54This market works for Client  GameID = 3758839  MarketName = Correct Score  MarketID = 224007635  SelectorError = 0.9228418041459305</t>
+  </si>
+  <si>
+    <t>55This market works for Client  GameID = 3774074  MarketName = Correct Score  MarketID = 224487107  SelectorError = 0.9154733944490744</t>
+  </si>
+  <si>
+    <t>56This market works for Client  GameID = 3774075  MarketName = Correct Score  MarketID = 224487120  SelectorError = 0.9154637688994611</t>
+  </si>
+  <si>
+    <t>57This market works for Client  GameID = 3774076  MarketName = Correct Score  MarketID = 224487136  SelectorError = 0.9241868009903526</t>
+  </si>
+  <si>
+    <t>58This market works for Client  GameID = 3774898  MarketName = Correct Score  MarketID = 224517740  SelectorError = 0.8965952080706179</t>
+  </si>
+  <si>
+    <t>59This market works for Client  GameID = 3748596  MarketName = Correct Score  MarketID = 223218857  SelectorError = 0.9814884654602343</t>
+  </si>
+  <si>
+    <t>60This market works for Client  GameID = 3766957  MarketName = Correct Score  MarketID = 224195907  SelectorError = 0.9264955652722578</t>
+  </si>
+  <si>
+    <t>61This market works for Client  GameID = 3773162  MarketName = Correct Score  MarketID = 224461434  SelectorError = 0.931230554661517</t>
+  </si>
+  <si>
+    <t>62This market works for Client  GameID = 3773164  MarketName = Correct Score  MarketID = 224461439  SelectorError = 0.9235115167318557</t>
+  </si>
+  <si>
+    <t>63This market works for Client  GameID = 3773165  MarketName = Correct Score  MarketID = 224461446  SelectorError = 0.9110473457675753</t>
+  </si>
+  <si>
+    <t>64This market works for Client  GameID = 3773680  MarketName = Correct Score  MarketID = 224494733  SelectorError = 0.9608469890570882</t>
+  </si>
+  <si>
+    <t>65This market works for Client  GameID = 3773681  MarketName = Correct Score  MarketID = 224493567  SelectorError = 0.944319448827366</t>
+  </si>
+  <si>
+    <t>66This market works for Client  GameID = 3774203  MarketName = Correct Score  MarketID = 224493621  SelectorError = 0.9585824286988491</t>
+  </si>
+  <si>
+    <t>67This market works for Client  GameID = 3747270  MarketName = Correct Score  MarketID = 223725150  SelectorError = 0.955794504181601</t>
+  </si>
+  <si>
+    <t>68This market works for Client  GameID = 3770248  MarketName = Correct Score  MarketID = 224321522  SelectorError = 0.9696646030741565</t>
+  </si>
+  <si>
+    <t>69This market works for Client  GameID = 3774086  MarketName = Correct Score  MarketID = 224487623  SelectorError = 0.9577729902686148</t>
+  </si>
+  <si>
+    <t>70This market works for Client  GameID = 3766969  MarketName = Correct Score  MarketID = 224196066  SelectorError = 0.8619299004847993</t>
+  </si>
+  <si>
+    <t>71This market works for Client  GameID = 3766973  MarketName = Correct Score  MarketID = 224196112  SelectorError = 0.9325069872907372</t>
+  </si>
+  <si>
+    <t>72This market works for Client  GameID = 3766978  MarketName = Correct Score  MarketID = 224196178  SelectorError = 0.9376804005665146</t>
+  </si>
+  <si>
+    <t>73This market works for Client  GameID = 3774052  MarketName = Correct Score  MarketID = 224486383  SelectorError = 0.9441499150130025</t>
+  </si>
+  <si>
+    <t>74This market works for Client  GameID = 3743950  MarketName = Correct Score  MarketID = 223479659  SelectorError = 0.9605710681554492</t>
+  </si>
+  <si>
+    <t>75This market works for Client  GameID = 3743954  MarketName = Correct Score  MarketID = 223741126  SelectorError = 0.953071349788176</t>
+  </si>
+  <si>
+    <t>76This market works for Client  GameID = 3771449  MarketName = Correct Score  MarketID = 224436871  SelectorError = 0.9340624896909613</t>
+  </si>
+  <si>
+    <t>77This market works for Client  GameID = 3772372  MarketName = Correct Score  MarketID = 224411071  SelectorError = 0.9410080646246122</t>
+  </si>
+  <si>
+    <t>78This market works for Client  GameID = 3773210  MarketName = Correct Score  MarketID = 224474339  SelectorError = 0.9528963471282668</t>
+  </si>
+  <si>
+    <t>79This market works for Client  GameID = 3773999  MarketName = Correct Score  MarketID = 224485267  SelectorError = 0.9424679650264198</t>
+  </si>
+  <si>
+    <t>80This market works for Client  GameID = 3774014  MarketName = Correct Score  MarketID = 224485710  SelectorError = 0.9502614888171804</t>
+  </si>
+  <si>
+    <t>81This market works for Client  GameID = 3762430  MarketName = Correct Score  MarketID = 223955522  SelectorError = 0.9827419937635256</t>
+  </si>
+  <si>
+    <t>82This market works for Client  GameID = 3762431  MarketName = Correct Score  MarketID = 223955529  SelectorError = 0.9631282114541069</t>
+  </si>
+  <si>
+    <t>83This market works for Client  GameID = 3763248  MarketName = Correct Score  MarketID = 223982501  SelectorError = 0.9953996917197745</t>
+  </si>
+  <si>
+    <t>84This market works for Client  GameID = 3763249  MarketName = Correct Score  MarketID = 223982508  SelectorError = 0.9805763503205432</t>
+  </si>
+  <si>
+    <t>85This market works for Client  GameID = 3763251  MarketName = Correct Score  MarketID = 223982551  SelectorError = 0.9746478585632545</t>
+  </si>
+  <si>
+    <t>86This market works for Client  GameID = 3763253  MarketName = Correct Score  MarketID = 223982574  SelectorError = 0.9815183305394161</t>
+  </si>
+  <si>
+    <t>87This market works for Client  GameID = 3763254  MarketName = Correct Score  MarketID = 223982589  SelectorError = 0.9664398418631053</t>
+  </si>
+  <si>
+    <t>88This market works for Client  GameID = 3763255  MarketName = Correct Score  MarketID = 223982600  SelectorError = 0.9668804766721588</t>
+  </si>
+  <si>
+    <t>89This market works for Client  GameID = 3763263  MarketName = Correct Score  MarketID = 223982805  SelectorError = 0.9592985693075691</t>
+  </si>
+  <si>
+    <t>90This market works for Client  GameID = 3763272  MarketName = Correct Score  MarketID = 223982925  SelectorError = 0.9796442649710139</t>
+  </si>
+  <si>
+    <t>91This market works for Client  GameID = 3763275  MarketName = Correct Score  MarketID = 223982942  SelectorError = 0.9714787665438541</t>
+  </si>
+  <si>
+    <t>92This market works for Client  GameID = 3763279  MarketName = Correct Score  MarketID = 223982967  SelectorError = 0.9845990096033128</t>
+  </si>
+  <si>
+    <t>93This market works for Client  GameID = 3769992  MarketName = Correct Score  MarketID = 224313818  SelectorError = 0.9986343729215236</t>
+  </si>
+  <si>
+    <t>94This market works for Client  GameID = 3767385  MarketName = Correct Score  MarketID = 224444985  SelectorError = 0.8411797902991058</t>
+  </si>
+  <si>
+    <t>95This market works for Client  GameID = 3767469  MarketName = Correct Score  MarketID = 224443915  SelectorError = 0.9264013692768507</t>
+  </si>
+  <si>
+    <t>96This market works for Client  GameID = 3767470  MarketName = Correct Score  MarketID = 224444943  SelectorError = 0.9318181818181819</t>
+  </si>
+  <si>
+    <t>97This market works for Client  GameID = 3767472  MarketName = Correct Score  MarketID = 224444954  SelectorError = 0.9078714911993719</t>
+  </si>
+  <si>
+    <t>98This market works for Client  GameID = 3773672  MarketName = Correct Score  MarketID = 224517778  SelectorError = 0.9287193138124816</t>
+  </si>
+  <si>
+    <t>99This market works for Client  GameID = 3773674  MarketName = Correct Score  MarketID = 224517246  SelectorError = 0.9114827201783724</t>
+  </si>
+  <si>
+    <t>100This market works for Client  GameID = 3771500  MarketName = Correct Score  MarketID = 224369339  SelectorError = 0.9742685625664614</t>
+  </si>
+  <si>
+    <t>101This market works for Client  GameID = 3771502  MarketName = Correct Score  MarketID = 224369398  SelectorError = 0.9837411967850453</t>
+  </si>
+  <si>
+    <t>102This market works for Client  GameID = 3767383  MarketName = Correct Score  MarketID = 224215257  SelectorError = 0.9738312861402079</t>
+  </si>
+  <si>
+    <t>103This market works for Client  GameID = 3767384  MarketName = Correct Score  MarketID = 224215265  SelectorError = 0.9908645937740472</t>
+  </si>
+  <si>
+    <t>104This market works for Client  GameID = 3767468  MarketName = Correct Score  MarketID = 224217436  SelectorError = 0.9758447330468756</t>
+  </si>
+  <si>
+    <t>105This market works for Client  GameID = 3768045  MarketName = Correct Score  MarketID = 224352971  SelectorError = 0.9758240005898656</t>
+  </si>
+  <si>
+    <t>106This market works for Client  GameID = 3767391  MarketName = Correct Score  MarketID = 224215292  SelectorError = 0.984334812849838</t>
+  </si>
+  <si>
+    <t>107This market works for Client  GameID = 3767393  MarketName = Correct Score  MarketID = 224215308  SelectorError = 0.9601545113520529</t>
+  </si>
+  <si>
+    <t>108This market works for Client  GameID = 3771485  MarketName = Correct Score  MarketID = 224368873  SelectorError = 0.9643251057393789</t>
+  </si>
+  <si>
+    <t>109This market works for Client  GameID = 3767763  MarketName = Correct Score  MarketID = 224225751  SelectorError = 0.9837962405364018</t>
+  </si>
+  <si>
+    <t>110This market works for Client  GameID = 3767764  MarketName = Correct Score  MarketID = 224225761  SelectorError = 0.9921404601123764</t>
+  </si>
+  <si>
+    <t>111This market works for Client  GameID = 3772467  MarketName = Correct Score  MarketID = 224416021  SelectorError = 0.996982029989365</t>
+  </si>
+  <si>
+    <t>112This market works for Client  GameID = 3772468  MarketName = Correct Score  MarketID = 224416222  SelectorError = 0.9973657062484731</t>
+  </si>
+  <si>
+    <t>113This market works for Client  GameID = 3767765  MarketName = Correct Score  MarketID = 224225770  SelectorError = 0.9830752766842861</t>
   </si>
 </sst>
 </file>
@@ -449,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A131"/>
+  <dimension ref="A1:A113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1023,96 +969,6 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
